--- a/Luban/DataTables/Datas/monster/monster.xlsx
+++ b/Luban/DataTables/Datas/monster/monster.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>##</t>
   </si>
@@ -46,61 +46,10 @@
     </r>
   </si>
   <si>
-    <t>x6</t>
-  </si>
-  <si>
-    <t>x8</t>
-  </si>
-  <si>
-    <t>x10#default=xxx</t>
-  </si>
-  <si>
-    <t>v2</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>k2</t>
-  </si>
-  <si>
-    <t>k8</t>
-  </si>
-  <si>
-    <t>k10</t>
-  </si>
-  <si>
-    <t>k11</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>vec2</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>array,int</t>
-  </si>
-  <si>
-    <t>(map#sep=,),int,int</t>
-  </si>
-  <si>
-    <t>list,vec3</t>
-  </si>
-  <si>
-    <t>list,vec4</t>
   </si>
   <si>
     <t>##var</t>
@@ -153,54 +102,6 @@
     <t>字段x1</t>
   </si>
   <si>
-    <t>huang</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>1999-08-24 10:09:09</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>2,3,4</t>
-  </si>
-  <si>
-    <t>1,2,4</t>
-  </si>
-  <si>
-    <t>1,2,3,5</t>
-  </si>
-  <si>
-    <t>1,2,3,6</t>
-  </si>
-  <si>
-    <t>2,3,5</t>
-  </si>
-  <si>
-    <t>1,2,5</t>
-  </si>
-  <si>
-    <t>1,2,3,7</t>
-  </si>
-  <si>
-    <t>v11</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>vec3?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -221,14 +122,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>fire</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>game.MagicAttribute</t>
+    <t>骷髅怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),game.MagicAttribute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,水</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土,水</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,12 +200,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,30 +222,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -619,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -631,14 +519,9 @@
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="27.875" customWidth="1"/>
-    <col min="5" max="5" width="8.875" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="20.375" customWidth="1"/>
-    <col min="13" max="13" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,236 +529,77 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>10000</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5">
-        <v>1.28</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>10001</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>43</v>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6">
-        <v>1.28</v>
-      </c>
-      <c r="F6" s="4">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>39</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>10002</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Luban/DataTables/Datas/monster/monster.xlsx
+++ b/Luban/DataTables/Datas/monster/monster.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>##</t>
   </si>
@@ -49,9 +49,6 @@
     <t>##type</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>##var</t>
   </si>
   <si>
@@ -138,7 +135,49 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>土,水</t>
+    <t>土,土</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bornSkills</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicCreaturesDarkness</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticBodyLV1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dig</t>
+  </si>
+  <si>
+    <t>rating</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>game.MonsterRating</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maggot</t>
+  </si>
+  <si>
+    <t>SkeletonMonster</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slime</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -518,10 +557,12 @@
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,74 +570,104 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>10000</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>10001</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>10002</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/DataTables/Datas/monster/monster.xlsx
+++ b/Luban/DataTables/Datas/monster/monster.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MonsterKingdom\Luban\DataTables\Datas\monster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityPorjects\MonsterKingdom\Luban\DataTables\Datas\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047AA996-CE23-4FAD-8F75-B10BBB830B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16770"/>
+    <workbookView xWindow="11655" yWindow="4425" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>##</t>
   </si>
@@ -180,11 +181,23 @@
     <t>Slime</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -545,24 +558,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="3" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,16 +586,22 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -593,21 +612,27 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -617,56 +642,74 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="4">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Luban/DataTables/Datas/monster/monster.xlsx
+++ b/Luban/DataTables/Datas/monster/monster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityPorjects\MonsterKingdom\Luban\DataTables\Datas\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047AA996-CE23-4FAD-8F75-B10BBB830B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25822B14-2BCF-4BA5-BECA-5A49C128E78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11655" yWindow="4425" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="2190" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>##</t>
   </si>
@@ -191,6 +191,29 @@
   </si>
   <si>
     <t>speed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>evoBy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>小火蜴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火,火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireLizard</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalAffinityFire</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -559,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,7 +598,7 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,8 +623,11 @@
       <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -626,13 +652,16 @@
       <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -644,7 +673,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
@@ -667,7 +696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -690,7 +719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
@@ -710,6 +739,29 @@
         <v>19</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Luban/DataTables/Datas/monster/monster.xlsx
+++ b/Luban/DataTables/Datas/monster/monster.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityPorjects\MonsterKingdom\Luban\DataTables\Datas\monster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MonsterKingdom\Luban\DataTables\Datas\monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25822B14-2BCF-4BA5-BECA-5A49C128E78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2190" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2385" yWindow="2190" windowWidth="28800" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>##</t>
   </si>
@@ -201,26 +200,50 @@
     <t>string</t>
   </si>
   <si>
-    <t>小火蜴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火,火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireLizard</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ElementalAffinityFire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚果怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>草,草</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜥蜴怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,土</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰史莱姆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElasticBodyLV1,MagicCreaturesFire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slime</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,11 +604,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -594,7 +617,7 @@
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="23.25" customWidth="1"/>
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -697,46 +720,47 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="4">
         <v>30</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>21</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>24</v>
@@ -744,10 +768,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
       <c r="D8">
         <v>25</v>
@@ -755,14 +779,46 @@
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>34</v>
+      <c r="F8" t="s">
+        <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/DataTables/Datas/monster/monster.xlsx
+++ b/Luban/DataTables/Datas/monster/monster.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="2385" yWindow="2190" windowWidth="28800" windowHeight="15345"/>
+    <workbookView xWindow="2385" yWindow="2190" windowWidth="28800" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>##</t>
   </si>
@@ -200,26 +200,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>ElementalAffinityFire</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚果怪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>草,草</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>蜥蜴怪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水,土</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>火焰史莱姆</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -228,15 +212,97 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ElasticBodyLV1,MagicCreaturesFire</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>D</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Slime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆小蜥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,草</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻史莱姆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,冰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicCreaturesFire</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicCreaturesIce</t>
+  </si>
+  <si>
+    <t>雷电史莱姆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,雷</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicCreaturesThunder</t>
+  </si>
+  <si>
+    <t>风,风</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南草雀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TailChopping</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlantMonster</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>种子怪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wings</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThunderSlime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireSlime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceSlime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimidLizard</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeedMonster</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SouthernGrassFinch</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -605,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,9 +786,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -731,94 +799,183 @@
         <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+      <c r="G7" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="4" t="s">
-        <v>34</v>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
       <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
         <v>30</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>35</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/DataTables/Datas/monster/monster.xlsx
+++ b/Luban/DataTables/Datas/monster/monster.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>##</t>
   </si>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>MagicCreaturesDarkness</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ElasticBodyLV1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -193,13 +189,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>evoBy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>草,草</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -216,10 +205,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Slime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>胆小蜥</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -304,6 +289,84 @@
   <si>
     <t>SouthernGrassFinch</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔眼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小哥布林</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devil</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水,水</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalAffinityWater</t>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dexterity</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DemonEye</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoblinLad</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merfolk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>光,光</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>食尸鬼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undead</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghoul</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖精</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fairy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementalAffinityLight</t>
   </si>
 </sst>
 </file>
@@ -671,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -687,7 +750,7 @@
     <col min="8" max="8" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,10 +761,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -710,13 +773,10 @@
         <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -727,10 +787,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
@@ -739,18 +799,15 @@
         <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -762,9 +819,9 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -779,18 +836,18 @@
         <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -799,24 +856,21 @@
         <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -825,24 +879,21 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -851,21 +902,18 @@
         <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -880,15 +928,15 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -903,18 +951,18 @@
         <v>13</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>25</v>
@@ -923,21 +971,21 @@
         <v>3</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>30</v>
@@ -946,21 +994,21 @@
         <v>2</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>25</v>
@@ -969,13 +1017,128 @@
         <v>3</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
